--- a/biology/Zoologie/Baryphas_jullieni/Baryphas_jullieni.xlsx
+++ b/biology/Zoologie/Baryphas_jullieni/Baryphas_jullieni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baryphas jullieni est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baryphas jullieni est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Sierra Leone, au Liberia, en Côte d'Ivoire et au Nigeria[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Sierra Leone, au Liberia, en Côte d'Ivoire et au Nigeria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1902.
-Baryphas albicinctus[3] et Baryphas micheli[3] ont été placées en synonymie par Clark en 1974[4].
-Polemus chrysochirus[2] a été placée en synonymie par Wesołowska et Russell-Smith en 2022[5].
+Baryphas albicinctus et Baryphas micheli ont été placées en synonymie par Clark en 1974.
+Polemus chrysochirus a été placée en synonymie par Wesołowska et Russell-Smith en 2022.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de M. Jullien[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de M. Jullien.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1902 : « Description d'arachnides nouveaux de la famille des Salticidae (Attidae) (suite). » Annales de la Société Entomologique de Belgique, vol. 46, p. 24-56 &amp; 363-406 (texte intégral).</t>
         </is>
